--- a/Study/21_study_REFramework_트렌젝션구조/Data/Config.xlsx
+++ b/Study/21_study_REFramework_트렌젝션구조/Data/Config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\GitHub\Study\21_study_REFramework_사업휴폐업과제적용\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\git\Study\21_study_REFramework_트렌젝션구조\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>Name</t>
   </si>
@@ -421,11 +421,19 @@
     <t>www.hometax.go.kr</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>SheetName</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>휴폐업조회목록</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -816,16 +824,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.578125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.41796875" customWidth="1"/>
+    <col min="4" max="26" width="8.68359375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -873,7 +881,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="45">
+    <row r="3" spans="1:26" ht="43.2">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -883,7 +891,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="30">
+    <row r="5" spans="1:26" ht="28.8">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -910,7 +918,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="120">
+    <row r="8" spans="1:26" ht="117.6">
       <c r="A8" s="6" t="s">
         <v>47</v>
       </c>
@@ -942,7 +950,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1947,12 +1962,12 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.41796875" customWidth="1"/>
+    <col min="4" max="26" width="8.68359375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1989,7 +2004,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26" ht="28.8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2000,7 +2015,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="45">
+    <row r="3" spans="1:26" ht="28.8">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -2114,7 +2129,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="30">
+    <row r="17" spans="1:3" ht="28.8">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -3108,12 +3123,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.83984375" customWidth="1"/>
+    <col min="2" max="2" width="30.15625" customWidth="1"/>
+    <col min="3" max="3" width="60.26171875" customWidth="1"/>
+    <col min="4" max="26" width="65.41796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
